--- a/Night shift.xlsx
+++ b/Night shift.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
@@ -46,22 +46,49 @@
     <t>Rate</t>
   </si>
   <si>
+    <t>Curtis,Odom</t>
+  </si>
+  <si>
     <t>Anthony,Alexander</t>
   </si>
   <si>
+    <t>Deron,Fuller</t>
+  </si>
+  <si>
+    <t>Dujuan,Myers</t>
+  </si>
+  <si>
+    <t>Luis,Vargas Jaquez</t>
+  </si>
+  <si>
     <t>Orrin,Darnley</t>
   </si>
   <si>
+    <t>Hansel,Reynoso</t>
+  </si>
+  <si>
     <t>Angel,Fernandez Hernandez</t>
   </si>
   <si>
-    <t>Dujuan,Myers</t>
-  </si>
-  <si>
-    <t>76.67</t>
-  </si>
-  <si>
-    <t>33.00</t>
+    <t>Miguel,Barros</t>
+  </si>
+  <si>
+    <t>100.00</t>
+  </si>
+  <si>
+    <t>81.50</t>
+  </si>
+  <si>
+    <t>54.00</t>
+  </si>
+  <si>
+    <t>36.00</t>
+  </si>
+  <si>
+    <t>31.00</t>
+  </si>
+  <si>
+    <t>27.00</t>
   </si>
   <si>
     <t>nan</t>
@@ -422,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -480,19 +507,19 @@
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -512,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G3">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -553,16 +580,16 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="I4">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="J4">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -588,16 +615,191 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="I5">
+        <v>25</v>
+      </c>
+      <c r="J5">
+        <v>50</v>
+      </c>
+      <c r="K5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>31</v>
+      </c>
+      <c r="K6" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>27</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>12</v>
+      </c>
+      <c r="J9">
+        <v>4</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>7</v>
+      </c>
+      <c r="K10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
